--- a/Sujeto_8/Carbohidrates.xlsx
+++ b/Sujeto_8/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE275962-9B9A-3C43-B98D-9238371027A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F19F9E-C46D-1A4B-8B91-02D7586128C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>115.6</t>
+  </si>
+  <si>
+    <t>74.8</t>
+  </si>
+  <si>
+    <t>96.8</t>
+  </si>
+  <si>
+    <t>118.8</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>132.8</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,24 +524,24 @@
       <c r="A7" s="2">
         <v>44391.804261458332</v>
       </c>
-      <c r="B7">
-        <v>115.6</v>
+      <c r="B7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44391.969626620368</v>
       </c>
-      <c r="B8">
-        <v>74.8</v>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44391.977677314811</v>
       </c>
-      <c r="B9">
-        <v>96.800000000000011</v>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -558,8 +588,8 @@
       <c r="A15" s="2">
         <v>44393.066448611113</v>
       </c>
-      <c r="B15">
-        <v>118.8</v>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,8 +620,8 @@
       <c r="A19" s="2">
         <v>44394.142660879632</v>
       </c>
-      <c r="B19">
-        <v>75.600000000000009</v>
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,32 +660,32 @@
       <c r="A24" s="2">
         <v>44394.941816087958</v>
       </c>
-      <c r="B24">
-        <v>26.8</v>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44395.027645486109</v>
       </c>
-      <c r="B25">
-        <v>34.4</v>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44395.061864699077</v>
       </c>
-      <c r="B26">
-        <v>118.8</v>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44395.250856944447</v>
       </c>
-      <c r="B27">
-        <v>9.6000000000000014</v>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,8 +700,8 @@
       <c r="A29" s="2">
         <v>44395.765263657413</v>
       </c>
-      <c r="B29">
-        <v>45.2</v>
+      <c r="B29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,8 +724,8 @@
       <c r="A32" s="2">
         <v>44395.880028935193</v>
       </c>
-      <c r="B32">
-        <v>132.80000000000001</v>
+      <c r="B32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/Sujeto_8/Carbohidrates.xlsx
+++ b/Sujeto_8/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F19F9E-C46D-1A4B-8B91-02D7586128C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B8F7F8-722F-3C44-B256-6ED17F09F987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -28,6 +28,21 @@
     <t>Value (g)</t>
   </si>
   <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>115.6</t>
   </si>
   <si>
@@ -37,12 +52,36 @@
     <t>96.8</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
     <t>118.8</t>
   </si>
   <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
     <t>75.6</t>
   </si>
   <si>
+    <t>120.0</t>
+  </si>
+  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -55,7 +94,16 @@
     <t>45.2</t>
   </si>
   <si>
+    <t>178.0</t>
+  </si>
+  <si>
     <t>132.8</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
   </si>
 </sst>
 </file>
@@ -463,9 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -484,40 +530,40 @@
       <c r="A2" s="2">
         <v>44391.059975115742</v>
       </c>
-      <c r="B2">
-        <v>112</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44391.55491979167</v>
       </c>
-      <c r="B3">
-        <v>32</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44391.556404282397</v>
       </c>
-      <c r="B4">
-        <v>68</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44391.678374074072</v>
       </c>
-      <c r="B5">
-        <v>54</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44391.756076851852</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +571,7 @@
         <v>44391.804261458332</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +579,7 @@
         <v>44391.969626620368</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,47 +587,47 @@
         <v>44391.977677314811</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44392.187043171303</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44392.187564814813</v>
       </c>
-      <c r="B11">
-        <v>40</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44392.718742824072</v>
       </c>
-      <c r="B12">
-        <v>20</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44392.798157986108</v>
       </c>
-      <c r="B13">
-        <v>136</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44392.947519675923</v>
       </c>
-      <c r="B14">
-        <v>64</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,31 +635,31 @@
         <v>44393.066448611113</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44393.172663310193</v>
       </c>
-      <c r="B16">
-        <v>116</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44393.641772106479</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44393.642049189817</v>
       </c>
-      <c r="B18">
-        <v>42</v>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -621,39 +667,39 @@
         <v>44394.142660879632</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44394.147895601847</v>
       </c>
-      <c r="B20">
-        <v>12</v>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44394.760210300927</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44394.764501620368</v>
       </c>
-      <c r="B22">
-        <v>120</v>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44394.94161134259</v>
       </c>
-      <c r="B23">
-        <v>12</v>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +707,7 @@
         <v>44394.941816087958</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -669,7 +715,7 @@
         <v>44395.027645486109</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -677,7 +723,7 @@
         <v>44395.061864699077</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,15 +731,15 @@
         <v>44395.250856944447</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44395.251890277781</v>
       </c>
-      <c r="B28">
-        <v>120</v>
+      <c r="B28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,23 +747,23 @@
         <v>44395.765263657413</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44395.806655671287</v>
       </c>
-      <c r="B30">
-        <v>178</v>
+      <c r="B30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44395.810683564807</v>
       </c>
-      <c r="B31">
-        <v>120</v>
+      <c r="B31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,23 +771,23 @@
         <v>44395.880028935193</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44396.004752430563</v>
       </c>
-      <c r="B33">
-        <v>100</v>
+      <c r="B33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44396.858328819442</v>
       </c>
-      <c r="B34">
-        <v>72</v>
+      <c r="B34" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
